--- a/src/main/resources/ru/avem/ksptsurgut/raw/template_phase3.xlsx
+++ b/src/main/resources/ru/avem/ksptsurgut/raw/template_phase3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
   <si>
     <t xml:space="preserve">ООО "СургутНефтеГаз"</t>
   </si>
@@ -99,16 +99,7 @@
     <t xml:space="preserve">P, КВА</t>
   </si>
   <si>
-    <t xml:space="preserve">I хх, %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U КЗ, %</t>
-  </si>
-  <si>
     <t xml:space="preserve">ХХ, с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uпробоя, B</t>
   </si>
   <si>
     <t xml:space="preserve">U мегер, B</t>
@@ -258,71 +249,10 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6$</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">7$</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">8$</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">$109$</t>
-  </si>
-  <si>
     <t xml:space="preserve">$110$</t>
   </si>
   <si>
@@ -381,24 +311,6 @@
   </si>
   <si>
     <t xml:space="preserve">$210$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BH и НН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$211$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$212$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$213$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$214$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$215$</t>
   </si>
   <si>
     <t xml:space="preserve">Измерение сопротивления обмоток постоянному току </t>
@@ -590,24 +502,7 @@
     <t xml:space="preserve">U КЗ, В</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">U КЗ</t>
-    </r>
+    <t xml:space="preserve">U КЗ, %</t>
   </si>
   <si>
     <t xml:space="preserve">I A, A</t>
@@ -622,7 +517,7 @@
     <t xml:space="preserve">Pn, Вт</t>
   </si>
   <si>
-    <t xml:space="preserve">$33$</t>
+    <t xml:space="preserve">$133$</t>
   </si>
   <si>
     <t xml:space="preserve">$34$</t>
@@ -631,6 +526,9 @@
     <t xml:space="preserve">$134$</t>
   </si>
   <si>
+    <t xml:space="preserve">$135$</t>
+  </si>
+  <si>
     <t xml:space="preserve">$35$</t>
   </si>
   <si>
@@ -655,16 +553,13 @@
     <t xml:space="preserve">UBH, В</t>
   </si>
   <si>
-    <t xml:space="preserve">IA- Ixx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IB- Ixx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC- Ixx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosФ</t>
+    <t xml:space="preserve">Ixx A, %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ixx B, %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ixx C, %</t>
   </si>
   <si>
     <t xml:space="preserve">$41$</t>
@@ -691,9 +586,6 @@
     <t xml:space="preserve">$45$</t>
   </si>
   <si>
-    <t xml:space="preserve">$46$</t>
-  </si>
-  <si>
     <t xml:space="preserve">$47$</t>
   </si>
   <si>
@@ -707,6 +599,9 @@
   </si>
   <si>
     <t xml:space="preserve">I BH, A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I, A</t>
   </si>
   <si>
     <t xml:space="preserve">t, сек</t>
@@ -1099,11 +994,11 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="5.43"/>
@@ -1432,8 +1327,6 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1464,20 +1357,11 @@
       <c r="E13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>24</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1495,34 +1379,25 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="E14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="F14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="G14" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1555,7 +1430,7 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -1580,22 +1455,22 @@
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -1615,22 +1490,22 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -1650,22 +1525,22 @@
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -1684,24 +1559,16 @@
       <c r="Y19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>59</v>
-      </c>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="2"/>
@@ -1719,18 +1586,16 @@
       <c r="Y20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="A21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1746,20 +1611,33 @@
       <c r="Y21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="A22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1771,33 +1649,31 @@
       <c r="Y22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>41</v>
+      <c r="A23" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
+      <c r="M23" s="26"/>
+      <c r="P23" s="26"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1810,28 +1686,26 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
+        <v>65</v>
+      </c>
       <c r="M24" s="26"/>
       <c r="P24" s="26"/>
       <c r="Q24" s="2"/>
@@ -1845,27 +1719,18 @@
       <c r="Y24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>77</v>
-      </c>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="26"/>
       <c r="P25" s="26"/>
       <c r="Q25" s="2"/>
@@ -1879,20 +1744,24 @@
       <c r="Y25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="P26" s="26"/>
+      <c r="A26" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -1904,206 +1773,205 @@
       <c r="Y26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+    </row>
+    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="26"/>
+    </row>
+    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29" t="s">
+      <c r="F29" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29" t="s">
+      <c r="G29" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="17" t="s">
+      <c r="H29" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="I29" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="L28" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-    </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="s">
+      <c r="J29" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="17" t="s">
+      <c r="K29" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="L29" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="M29" s="26"/>
+    </row>
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+    </row>
+    <row r="31" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="17" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+    </row>
+    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I29" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="26"/>
-    </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="19" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="M30" s="26"/>
-    </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-    </row>
-    <row r="32" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-    </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -2115,21 +1983,42 @@
       <c r="Y35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
+      <c r="A36" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
@@ -2141,32 +2030,38 @@
       <c r="Y36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="I37" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="J37" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="K37" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>41</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -2182,33 +2077,19 @@
       <c r="Y37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>119</v>
-      </c>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -2223,22 +2104,23 @@
       <c r="Y38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
+      <c r="A39" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -2250,24 +2132,42 @@
       <c r="Y39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
+      <c r="A40" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -2279,41 +2179,38 @@
       <c r="Y40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="18" t="s">
+      <c r="J41" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="K41" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="L41" s="17" t="s">
-        <v>41</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -2329,42 +2226,19 @@
       <c r="Y41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="L42" s="19" t="s">
-        <v>136</v>
-      </c>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -2379,22 +2253,21 @@
       <c r="Y42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
+      <c r="A43" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -2406,20 +2279,28 @@
       <c r="Y43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
+      <c r="A44" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" s="14"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -2431,22 +2312,24 @@
       <c r="Y44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J45" s="14"/>
+      <c r="A45" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -2461,21 +2344,15 @@
       <c r="Y45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>145</v>
-      </c>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -2489,45 +2366,36 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-    </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
+    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="33"/>
@@ -2542,6 +2410,19 @@
       <c r="J50" s="33"/>
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="33"/>
@@ -2571,18 +2452,18 @@
       <c r="Y51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -2598,18 +2479,26 @@
       <c r="Y52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+      <c r="A53" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="34"/>
+      <c r="C53" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="35"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="L53" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -2626,11 +2515,11 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="34" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B54" s="34"/>
       <c r="C54" s="35" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="14"/>
@@ -2640,7 +2529,7 @@
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
       <c r="K54" s="36" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L54" s="32" t="s">
         <v>13</v>
@@ -2659,47 +2548,13 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="L55" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2719,31 +2574,31 @@
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="H10:L10"/>
-    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A12:G12"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="C49:L49"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="C48:L48"/>
+    <mergeCell ref="A49:L49"/>
     <mergeCell ref="A50:L50"/>
     <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:J53"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="E54:J54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:J55"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
